--- a/GameTools/Documents/AmiiboTools/文件删除.xlsx
+++ b/GameTools/Documents/AmiiboTools/文件删除.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="4" sheetId="4" r:id="rId4"/>
     <sheet name="继承" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$E$1</definedName>
@@ -508,10 +507,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,7 +798,7 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -2289,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2345,7 +2344,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2356,7 +2355,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="7" t="s">
         <v>96</v>
       </c>
@@ -2365,7 +2364,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2376,7 +2375,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="7" t="s">
         <v>89</v>
       </c>
@@ -2385,7 +2384,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2404,17 +2403,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>